--- a/奨学金返金書類/（１）H30様式1-1申請書_下書き.xlsx
+++ b/奨学金返金書類/（１）H30様式1-1申請書_下書き.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/奨学金返金書類/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A183C10-8210-784E-878A-D67B08134FE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D325E-F312-C841-B435-E684632DF9CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="11400" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>独立行政法人</t>
     <rPh sb="0" eb="2">
@@ -1073,6 +1073,13 @@
   </si>
   <si>
     <t>35-176043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は</t>
+    <rPh sb="0" eb="1">
+      <t>ワタsh</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1198,7 +1205,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="69">
     <border>
@@ -2078,7 +2091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2511,9 +2524,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2549,6 +2559,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3015,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15:AD15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16.5" customHeight="1"/>
@@ -3552,32 +3574,32 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
-      <c r="G16" s="147" t="s">
+      <c r="G16" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="149"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="148"/>
     </row>
     <row r="17" spans="1:30" ht="23" customHeight="1">
       <c r="A17" s="71"/>
@@ -3683,42 +3705,44 @@
       <c r="AD20" s="78"/>
     </row>
     <row r="21" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="157"/>
-      <c r="S21" s="157"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="157"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="158"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="157"/>
     </row>
     <row r="22" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="53"/>
       <c r="D22" s="79"/>
       <c r="E22" s="79"/>
@@ -3749,8 +3773,8 @@
       <c r="AD22" s="80"/>
     </row>
     <row r="23" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A23" s="152"/>
-      <c r="B23" s="153"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="39"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -3781,8 +3805,8 @@
       <c r="AD23" s="37"/>
     </row>
     <row r="24" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A24" s="152"/>
-      <c r="B24" s="153"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="53"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
@@ -3813,8 +3837,8 @@
       <c r="AD24" s="80"/>
     </row>
     <row r="25" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A25" s="152"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="53"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -3845,8 +3869,8 @@
       <c r="AD25" s="80"/>
     </row>
     <row r="26" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A26" s="152"/>
-      <c r="B26" s="153"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="53"/>
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
@@ -3877,8 +3901,8 @@
       <c r="AD26" s="80"/>
     </row>
     <row r="27" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A27" s="152"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="53"/>
       <c r="D27" s="79"/>
       <c r="E27" s="79"/>
@@ -3909,8 +3933,8 @@
       <c r="AD27" s="80"/>
     </row>
     <row r="28" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="53"/>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
@@ -3941,8 +3965,8 @@
       <c r="AD28" s="80"/>
     </row>
     <row r="29" spans="1:30" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A29" s="154"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="84"/>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
@@ -3979,10 +4003,10 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="52" customHeight="1">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="127"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="134" t="s">
         <v>8</v>
       </c>
@@ -4051,10 +4075,10 @@
       <c r="R33" s="67"/>
       <c r="S33" s="67"/>
       <c r="T33" s="73"/>
-      <c r="U33" s="130" t="s">
+      <c r="U33" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="129"/>
+      <c r="V33" s="161"/>
       <c r="W33" s="67" t="s">
         <v>10</v>
       </c>
